--- a/tabelas_descritas/tabelas descritas.xlsx
+++ b/tabelas_descritas/tabelas descritas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/33d4691adf660462/Documentos/Database/GITTED/db_ceuazul/tabelas_descritas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55B9C78A-B170-4781-9151-20F6A6C51A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{55B9C78A-B170-4781-9151-20F6A6C51A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65D89777-BC91-4700-BE86-8C064118A81A}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-9750" windowWidth="29040" windowHeight="15720" xr2:uid="{0BC63842-4E3E-4E40-8D4F-D6F04DB4DE6A}"/>
+    <workbookView xWindow="10725" yWindow="0" windowWidth="9870" windowHeight="10905" xr2:uid="{0BC63842-4E3E-4E40-8D4F-D6F04DB4DE6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="115">
   <si>
     <t>NOME</t>
   </si>
@@ -140,9 +140,6 @@
     <t>smallint</t>
   </si>
   <si>
-    <t>integer</t>
-  </si>
-  <si>
     <t>id_funcionario</t>
   </si>
   <si>
@@ -378,6 +375,12 @@
   </si>
   <si>
     <t>Fica NULL até o encerramento da reserva</t>
+  </si>
+  <si>
+    <t>PK e FK</t>
+  </si>
+  <si>
+    <t>Aceita valores nulos, em caso de reformas e criações de quartos</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -509,11 +512,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -524,15 +538,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -541,6 +546,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D03502F-78FD-46F2-A36C-815AE526ED4C}">
   <dimension ref="B1:F143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" zoomScale="110" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,13 +898,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="2:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -901,39 +924,39 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>20</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="7" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -953,72 +976,72 @@
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>15</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="15" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
@@ -1038,169 +1061,169 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
+        <v>50</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7">
-        <v>20</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="7">
-        <v>60</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="7">
-        <v>50</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="7"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="30" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
@@ -1220,74 +1243,74 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7" t="s">
+      <c r="B32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="7"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <v>50</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="7">
-        <v>50</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="38" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
@@ -1307,137 +1330,139 @@
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
+      <c r="B40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4">
+        <v>60</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="7" t="s">
+      <c r="D42" s="4">
+        <v>60</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="4">
         <v>60</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="4">
         <v>60</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="7">
-        <v>60</v>
-      </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="D47" s="4">
+        <v>20</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C48" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="7">
-        <v>20</v>
-      </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B49" s="7" t="s">
+      <c r="D49" s="4">
+        <v>50</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="7">
-        <v>50</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="51" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="6"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
@@ -1457,143 +1482,143 @@
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7" t="s">
+      <c r="B53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>20</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="7">
-        <v>20</v>
-      </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="4">
+        <v>60</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="7">
-        <v>60</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
+      <c r="D60" s="4">
+        <v>50</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B59" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="7">
-        <v>1</v>
-      </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B60" s="7" t="s">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="7">
-        <v>50</v>
-      </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
+      <c r="C61" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="7"/>
+      <c r="C62" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="4"/>
     </row>
     <row r="64" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="6"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
@@ -1613,41 +1638,41 @@
       </c>
     </row>
     <row r="66" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="7"/>
+      <c r="B67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F67" s="4"/>
     </row>
     <row r="69" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="6"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9"/>
     </row>
     <row r="70" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
@@ -1667,39 +1692,39 @@
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7" t="s">
+      <c r="B71" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="4">
         <v>20</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="74" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="6"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="9"/>
     </row>
     <row r="75" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
@@ -1719,41 +1744,41 @@
       </c>
     </row>
     <row r="76" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="7" t="s">
+      <c r="B76" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="7"/>
+      <c r="C77" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F77" s="4"/>
     </row>
     <row r="79" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="6"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
@@ -1773,39 +1798,39 @@
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7" t="s">
+      <c r="D81" s="4"/>
+      <c r="E81" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="7"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="4">
         <v>20</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="84" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="6"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="2" t="s">
@@ -1825,87 +1850,89 @@
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C87" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="7" t="s">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C88" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C89" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B90" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C89" s="7" t="s">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C91" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="93" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="6"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="2" t="s">
@@ -1925,121 +1952,111 @@
       </c>
     </row>
     <row r="95" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="7" t="s">
+      <c r="C97" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="7" t="s">
+      <c r="C98" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C98" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C99" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="7" t="s">
+      <c r="C101" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C101" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="C102" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="12"/>
     </row>
     <row r="104" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="6"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B105" s="2" t="s">
@@ -2059,39 +2076,39 @@
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="7" t="s">
+      <c r="B106" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7" t="s">
+      <c r="D106" s="4"/>
+      <c r="E106" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="7"/>
+      <c r="F106" s="4"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="4">
         <v>20</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
     </row>
     <row r="109" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="6"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="9"/>
     </row>
     <row r="110" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
@@ -2111,39 +2128,39 @@
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C111" s="7" t="s">
+      <c r="B111" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7" t="s">
+      <c r="D111" s="4"/>
+      <c r="E111" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="7"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="4">
         <v>20</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
     </row>
     <row r="114" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="6"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="9"/>
     </row>
     <row r="115" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
@@ -2163,41 +2180,41 @@
       </c>
     </row>
     <row r="116" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C116" s="7" t="s">
+      <c r="B116" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C117" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" s="7"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F117" s="4"/>
     </row>
     <row r="119" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="6"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="9"/>
     </row>
     <row r="120" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="2" t="s">
@@ -2216,40 +2233,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C121" s="7" t="s">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7" t="s">
+      <c r="D121" s="4"/>
+      <c r="E121" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="7"/>
+      <c r="F121" s="4"/>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
+      <c r="B122" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="4">
         <v>20</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
     </row>
     <row r="124" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
-      <c r="E124" s="5"/>
-      <c r="F124" s="6"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="9"/>
     </row>
     <row r="125" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B125" s="2" t="s">
@@ -2269,39 +2286,39 @@
       </c>
     </row>
     <row r="126" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B126" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C126" s="7" t="s">
+      <c r="B126" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7" t="s">
+      <c r="D126" s="4"/>
+      <c r="E126" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="7"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="4">
         <v>20</v>
       </c>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
     </row>
     <row r="129" spans="2:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="5"/>
-      <c r="D129" s="5"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="6"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9"/>
     </row>
     <row r="130" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="2" t="s">
@@ -2321,178 +2338,191 @@
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B131" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C131" s="7" t="s">
+      <c r="B131" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+    </row>
+    <row r="133" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B133" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="134" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C137" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="7"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B132" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C132" s="7" t="s">
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F138" s="4"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F139" s="4"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F140" s="4"/>
+    </row>
+    <row r="141" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-    </row>
-    <row r="133" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B133" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="134" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C134" s="7" t="s">
+      <c r="E141" s="4"/>
+      <c r="F141" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="142" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B143" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C143" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F135" s="9"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B136" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F136" s="7"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B137" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B138" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F138" s="7"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B139" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F139" s="7"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B140" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F140" s="7"/>
-    </row>
-    <row r="141" spans="2:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="B141" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C141" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D141" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="142" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B142" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7" t="s">
+      <c r="D143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="143" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B143" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="F97:F102"/>
+    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B51:F51"/>
+    <mergeCell ref="B64:F64"/>
+    <mergeCell ref="B69:F69"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B84:F84"/>
     <mergeCell ref="F134:F135"/>
     <mergeCell ref="B104:F104"/>
     <mergeCell ref="B109:F109"/>
@@ -2500,18 +2530,6 @@
     <mergeCell ref="B119:F119"/>
     <mergeCell ref="B124:F124"/>
     <mergeCell ref="B129:F129"/>
-    <mergeCell ref="B64:F64"/>
-    <mergeCell ref="B69:F69"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B93:F93"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B51:F51"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
